--- a/biology/Histoire de la zoologie et de la botanique/Rob_van_Soest/Rob_van_Soest.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Rob_van_Soest/Rob_van_Soest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rob van Soest, né en 1946, est un biologiste marin néerlandais. Il est chercheur au Naturalis Biodiversity Center et chargé de cours à l'Université d'Amsterdam. Il est l'auteur, en collaboration avec le biologiste marin australien John N. A. Hooper, de l'ouvrage Systema Porifera: A Guide to the Classification of Sponges[1], un livre qui est considéré comme l'ouvrage standard[2],[3],[4] pour la classification des Porifères (éponges).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rob van Soest, né en 1946, est un biologiste marin néerlandais. Il est chercheur au Naturalis Biodiversity Center et chargé de cours à l'Université d'Amsterdam. Il est l'auteur, en collaboration avec le biologiste marin australien John N. A. Hooper, de l'ouvrage Systema Porifera: A Guide to the Classification of Sponges, un livre qui est considéré comme l'ouvrage standard pour la classification des Porifères (éponges).
 Rob van Soest travaille à la description et à la compréhension de l'organisation et de la biogéographie des éponges. Il est également rédacteur en chef de la World Porifera Database (WPD).
 </t>
         </is>
